--- a/Scripts/python/SourceTables/RuneBuffs.xlsx
+++ b/Scripts/python/SourceTables/RuneBuffs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\vscodespace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Obsidian\Perfect_World_Mobile_RU_Database\Scripts\python\SourceTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -839,660 +839,6 @@
     <t>Rune_Skill</t>
   </si>
   <si>
-    <t>[Теневая казнь]</t>
-  </si>
-  <si>
-    <t>[Сбор душ]</t>
-  </si>
-  <si>
-    <t>[Окружающий удар]</t>
-  </si>
-  <si>
-    <t>[Падающая жизнь]</t>
-  </si>
-  <si>
-    <t>[Погоня за тенью]</t>
-  </si>
-  <si>
-    <t>[Плоды смерти]</t>
-  </si>
-  <si>
-    <t>[Морозный укус]</t>
-  </si>
-  <si>
-    <t>[Ураган]</t>
-  </si>
-  <si>
-    <t>[Коварство]</t>
-  </si>
-  <si>
-    <t>[Предрассудок]</t>
-  </si>
-  <si>
-    <t>[Заряженный взрыв]</t>
-  </si>
-  <si>
-    <t>[Рёв скорости]</t>
-  </si>
-  <si>
-    <t>[Удар исподтишка]</t>
-  </si>
-  <si>
-    <t>[Дарованная смерть]</t>
-  </si>
-  <si>
-    <t>[Призрачная казнь]</t>
-  </si>
-  <si>
-    <t>[Разрыв пустоты]</t>
-  </si>
-  <si>
-    <t>[Кровавый укус]</t>
-  </si>
-  <si>
-    <t>[Тугой арбалет]</t>
-  </si>
-  <si>
-    <t>[Орлиное заклятье]</t>
-  </si>
-  <si>
-    <t>[Быстрый выпад]</t>
-  </si>
-  <si>
-    <t>[Атака перьями]</t>
-  </si>
-  <si>
-    <t>[Штурм]</t>
-  </si>
-  <si>
-    <t>[Казнь перьями]</t>
-  </si>
-  <si>
-    <t>[Резкий удар]</t>
-  </si>
-  <si>
-    <t>[Званная смерть]</t>
-  </si>
-  <si>
-    <t>[Запуск]</t>
-  </si>
-  <si>
-    <t>[Молниеносный укус]</t>
-  </si>
-  <si>
-    <t>[Загнанный зверь]</t>
-  </si>
-  <si>
-    <t>[Перьевой щит]</t>
-  </si>
-  <si>
-    <t>[Сломанная жизнь]</t>
-  </si>
-  <si>
-    <t>[Дух перьев]</t>
-  </si>
-  <si>
-    <t>[Божественный выстрел]</t>
-  </si>
-  <si>
-    <t>[Ледяной клинок]</t>
-  </si>
-  <si>
-    <t>[Огненный взрыв]</t>
-  </si>
-  <si>
-    <t>[Удар крылом]</t>
-  </si>
-  <si>
-    <t>[Одухотворение]</t>
-  </si>
-  <si>
-    <t>[Сосредоточенная сила]</t>
-  </si>
-  <si>
-    <t>[Предсказанная смерть]</t>
-  </si>
-  <si>
-    <t>[Морозные доспехи]</t>
-  </si>
-  <si>
-    <t>[Сосредоточенный дух]</t>
-  </si>
-  <si>
-    <t>[Обжиг]</t>
-  </si>
-  <si>
-    <t>[Песнопение]</t>
-  </si>
-  <si>
-    <t>[Ледяной укус]</t>
-  </si>
-  <si>
-    <t>[Быстрая смерть]</t>
-  </si>
-  <si>
-    <t>[Ледниковая эрозия]</t>
-  </si>
-  <si>
-    <t>[Рубежная оборона]</t>
-  </si>
-  <si>
-    <t>[Ветряный дефект]</t>
-  </si>
-  <si>
-    <t>[Подозрение]</t>
-  </si>
-  <si>
-    <t>[Зачарованный ряд]</t>
-  </si>
-  <si>
-    <t>[Безудержные чары]</t>
-  </si>
-  <si>
-    <t>[Чёрная магия]</t>
-  </si>
-  <si>
-    <t>[Обузданные чары]</t>
-  </si>
-  <si>
-    <t>[Злая душа]</t>
-  </si>
-  <si>
-    <t>[Порченный дух]</t>
-  </si>
-  <si>
-    <t>[Зачарованная речь]</t>
-  </si>
-  <si>
-    <t>[Прорыв рядов]</t>
-  </si>
-  <si>
-    <t>[Порождение]</t>
-  </si>
-  <si>
-    <t>[Возбуждённый дух]</t>
-  </si>
-  <si>
-    <t>[Своевольный удар]</t>
-  </si>
-  <si>
-    <t>[Порочная казнь]</t>
-  </si>
-  <si>
-    <t>[Жертвенная нечисть]</t>
-  </si>
-  <si>
-    <t>[Обвивающий дракон]</t>
-  </si>
-  <si>
-    <t>[Теневой щит]</t>
-  </si>
-  <si>
-    <t>[Поглощение духа]</t>
-  </si>
-  <si>
-    <t>[Скитания]</t>
-  </si>
-  <si>
-    <t>[Подавленное начало]</t>
-  </si>
-  <si>
-    <t>[Вынужденность]</t>
-  </si>
-  <si>
-    <t>[Сломленный дух]</t>
-  </si>
-  <si>
-    <t>[Забытая душа]</t>
-  </si>
-  <si>
-    <t>[Скованная тень]</t>
-  </si>
-  <si>
-    <t>[Поражённый дух]</t>
-  </si>
-  <si>
-    <t>[Шальная стрела]</t>
-  </si>
-  <si>
-    <t>[Бездумье]</t>
-  </si>
-  <si>
-    <t>[Оплаканная смерть]</t>
-  </si>
-  <si>
-    <t>[Обвивающая душа]</t>
-  </si>
-  <si>
-    <t>[Речь душ]</t>
-  </si>
-  <si>
-    <t>[Подавленная душа]</t>
-  </si>
-  <si>
-    <t>[Укус души]</t>
-  </si>
-  <si>
-    <t>[Ярость душ]</t>
-  </si>
-  <si>
-    <t>[Обескураживание]</t>
-  </si>
-  <si>
-    <t>[Тёплый ветер]</t>
-  </si>
-  <si>
-    <t>[Сердечный укус]</t>
-  </si>
-  <si>
-    <t>[Покровительство]</t>
-  </si>
-  <si>
-    <t>[Призыв грома]</t>
-  </si>
-  <si>
-    <t>[Убеждённая душа]</t>
-  </si>
-  <si>
-    <t>[Прикрывающие перья]</t>
-  </si>
-  <si>
-    <t>[Сосредоточенное начало]</t>
-  </si>
-  <si>
-    <t>[Перемещение]</t>
-  </si>
-  <si>
-    <t>[Ветряный укус]</t>
-  </si>
-  <si>
-    <t>[Сгнившие кости]</t>
-  </si>
-  <si>
-    <t>[Остаток жизни]</t>
-  </si>
-  <si>
-    <t>[Громовая мощь]</t>
-  </si>
-  <si>
-    <t>[Обвивающий аромат]</t>
-  </si>
-  <si>
-    <t>[Цепное убийство]</t>
-  </si>
-  <si>
-    <t>[Исходное заклятье]</t>
-  </si>
-  <si>
-    <t>[Крах]</t>
-  </si>
-  <si>
-    <t>[Мощный рык]</t>
-  </si>
-  <si>
-    <t>[Уверенная мощь]</t>
-  </si>
-  <si>
-    <t>[Защита щитом]</t>
-  </si>
-  <si>
-    <t>[Звериный дух]</t>
-  </si>
-  <si>
-    <t>[Подчинение души]</t>
-  </si>
-  <si>
-    <t>[Раскол брони]</t>
-  </si>
-  <si>
-    <t>[Возврат духа]</t>
-  </si>
-  <si>
-    <t>[Застойная перемена]</t>
-  </si>
-  <si>
-    <t>[Укус демона]</t>
-  </si>
-  <si>
-    <t>[Натиск]</t>
-  </si>
-  <si>
-    <t>[Зверский прилив]</t>
-  </si>
-  <si>
-    <t>[Болезненное зверство]</t>
-  </si>
-  <si>
-    <t>[Преследование]</t>
-  </si>
-  <si>
-    <t>[Вопль]</t>
-  </si>
-  <si>
-    <t>[Вожделенный дух]</t>
-  </si>
-  <si>
-    <t>[Укус пустоты]</t>
-  </si>
-  <si>
-    <t>[Шрамы от укусов]</t>
-  </si>
-  <si>
-    <t>[Размытие]</t>
-  </si>
-  <si>
-    <t>[Обвал]</t>
-  </si>
-  <si>
-    <t>[Иллюзорный танец]</t>
-  </si>
-  <si>
-    <t>[Встречный поток]</t>
-  </si>
-  <si>
-    <t>[Челночное снование]</t>
-  </si>
-  <si>
-    <t>[Деформация]</t>
-  </si>
-  <si>
-    <t>[Оковы]</t>
-  </si>
-  <si>
-    <t>[Забытье]</t>
-  </si>
-  <si>
-    <t>[Отстранение]</t>
-  </si>
-  <si>
-    <t>[Воспоминание душ]</t>
-  </si>
-  <si>
-    <t>[Свёртывание]</t>
-  </si>
-  <si>
-    <t>[Гнёт]</t>
-  </si>
-  <si>
-    <t>[Острие пустоты]</t>
-  </si>
-  <si>
-    <t>[Мгновенная вспышка]</t>
-  </si>
-  <si>
-    <t>[Сосредоточенность]</t>
-  </si>
-  <si>
-    <t>[Тирания]</t>
-  </si>
-  <si>
-    <t>[Пляска]</t>
-  </si>
-  <si>
-    <t>[Напряжение сил]</t>
-  </si>
-  <si>
-    <t>[Гнев дракона]</t>
-  </si>
-  <si>
-    <t>[Защитная форма]</t>
-  </si>
-  <si>
-    <t>[Атака из засады]</t>
-  </si>
-  <si>
-    <t>[Озарение]</t>
-  </si>
-  <si>
-    <t>[Могучий дракон]</t>
-  </si>
-  <si>
-    <t>[Лунный укус]</t>
-  </si>
-  <si>
-    <t>[Санкция]</t>
-  </si>
-  <si>
-    <t>[Смерть на щите]</t>
-  </si>
-  <si>
-    <t>[Несчастная смута]</t>
-  </si>
-  <si>
-    <t>[Волна холода]</t>
-  </si>
-  <si>
-    <t>[Болезненный удар]</t>
-  </si>
-  <si>
-    <t>[Пронзающий хук]</t>
-  </si>
-  <si>
-    <t>[Противник богов]</t>
-  </si>
-  <si>
-    <t>[Очарование]</t>
-  </si>
-  <si>
-    <t>[Судьба]</t>
-  </si>
-  <si>
-    <t>[Ледяное сердце]</t>
-  </si>
-  <si>
-    <t>[Цанфэн]</t>
-  </si>
-  <si>
-    <t>[Небокрушитель]</t>
-  </si>
-  <si>
-    <t>[Мудрый отшельник]</t>
-  </si>
-  <si>
-    <t>[Расколотая гора]</t>
-  </si>
-  <si>
-    <t>[Жнец душ]</t>
-  </si>
-  <si>
-    <t>[Меч затмения]</t>
-  </si>
-  <si>
-    <t>[Витать в небесах]</t>
-  </si>
-  <si>
-    <t>[Видение Бога]</t>
-  </si>
-  <si>
-    <t>[Порыв ветра]</t>
-  </si>
-  <si>
-    <t>[Блеск]</t>
-  </si>
-  <si>
-    <t>[Вой дракона]</t>
-  </si>
-  <si>
-    <t>[Беспорочный]</t>
-  </si>
-  <si>
-    <t>[Сломанный]</t>
-  </si>
-  <si>
-    <t>[Наказать зло]</t>
-  </si>
-  <si>
-    <t>[Королевский дракон]</t>
-  </si>
-  <si>
-    <t>[Кованое сердце]</t>
-  </si>
-  <si>
-    <t>[Просветление]</t>
-  </si>
-  <si>
-    <t>[Нет луча]</t>
-  </si>
-  <si>
-    <t>[Волшебный Меч]</t>
-  </si>
-  <si>
-    <t>[Конформный]</t>
-  </si>
-  <si>
-    <t>[Густота]</t>
-  </si>
-  <si>
-    <t>[Движение тени]</t>
-  </si>
-  <si>
-    <t>[Музыка грома]</t>
-  </si>
-  <si>
-    <t>[Новолуние]</t>
-  </si>
-  <si>
-    <t>[Ясная тень]</t>
-  </si>
-  <si>
-    <t>[Сияние светил]</t>
-  </si>
-  <si>
-    <t>[Громовой удар]</t>
-  </si>
-  <si>
-    <t>[Затмение]</t>
-  </si>
-  <si>
-    <t>[Тяжесть нефрита]</t>
-  </si>
-  <si>
-    <t>[Свет добродетели]</t>
-  </si>
-  <si>
-    <t>[Море приливов]</t>
-  </si>
-  <si>
-    <t>[Мрак]</t>
-  </si>
-  <si>
-    <t>[Морозная месть]</t>
-  </si>
-  <si>
-    <t>[Туманная луна]</t>
-  </si>
-  <si>
-    <t>[Скромность]</t>
-  </si>
-  <si>
-    <t>[Одинокий свет]</t>
-  </si>
-  <si>
-    <t>[Ход судьбы]</t>
-  </si>
-  <si>
-    <t>[Прелесть луны]</t>
-  </si>
-  <si>
-    <t>[Заходящая луна]</t>
-  </si>
-  <si>
-    <t>[Возгорание]</t>
-  </si>
-  <si>
-    <t>[Погибель драконов]</t>
-  </si>
-  <si>
-    <t>[Поток лавы]</t>
-  </si>
-  <si>
-    <t>[Непрерывная атака]</t>
-  </si>
-  <si>
-    <t>[Тление]</t>
-  </si>
-  <si>
-    <t>[Мощь бога]</t>
-  </si>
-  <si>
-    <t>[Триумф]</t>
-  </si>
-  <si>
-    <t>[Удар бури]</t>
-  </si>
-  <si>
-    <t>[Страж духов]</t>
-  </si>
-  <si>
-    <t>[Божественный щит]</t>
-  </si>
-  <si>
-    <t>[Контроль демона]</t>
-  </si>
-  <si>
-    <t>[Крушитель]</t>
-  </si>
-  <si>
-    <t>[Магический контроль]</t>
-  </si>
-  <si>
-    <t>[Рассечение неба]</t>
-  </si>
-  <si>
-    <t>[Владыка]</t>
-  </si>
-  <si>
-    <t>[Пламя]</t>
-  </si>
-  <si>
-    <t>[Лунная вуаль]</t>
-  </si>
-  <si>
-    <t>[Словно ветер]</t>
-  </si>
-  <si>
-    <t>[Звездный удар]</t>
-  </si>
-  <si>
-    <t>[Раскол хаоса]</t>
-  </si>
-  <si>
-    <t>[Бесформенная тень]</t>
-  </si>
-  <si>
-    <t>[Пылающий авангард]</t>
-  </si>
-  <si>
-    <t>[Крах империи]</t>
-  </si>
-  <si>
-    <t>[Бурный порыв]</t>
-  </si>
-  <si>
-    <t>[Бог севера]</t>
-  </si>
-  <si>
-    <t>[Буревестник]</t>
-  </si>
-  <si>
-    <t>[Полет радуги]</t>
-  </si>
-  <si>
-    <t>[Боевая эгида]</t>
-  </si>
-  <si>
-    <t>[Ярость бездны]</t>
-  </si>
-  <si>
-    <t>[Конец пути]</t>
-  </si>
-  <si>
-    <t>[Землетрясение]</t>
-  </si>
-  <si>
-    <t>[Рев дракона]</t>
-  </si>
-  <si>
     <t>[Навык - Тень] След волка дополнительно увеличивает исходящий урон на {0}%.</t>
   </si>
   <si>
@@ -2154,6 +1500,660 @@
   </si>
   <si>
     <t>[Тип Д: Посредник] Каждый уровень Заряда дает доп. урон от "Отскока лезвия" +{0}%</t>
+  </si>
+  <si>
+    <t>Теневая казнь</t>
+  </si>
+  <si>
+    <t>Сбор душ</t>
+  </si>
+  <si>
+    <t>Окружающий удар</t>
+  </si>
+  <si>
+    <t>Падающая жизнь</t>
+  </si>
+  <si>
+    <t>Погоня за тенью</t>
+  </si>
+  <si>
+    <t>Плоды смерти</t>
+  </si>
+  <si>
+    <t>Морозный укус</t>
+  </si>
+  <si>
+    <t>Ураган</t>
+  </si>
+  <si>
+    <t>Коварство</t>
+  </si>
+  <si>
+    <t>Предрассудок</t>
+  </si>
+  <si>
+    <t>Заряженный взрыв</t>
+  </si>
+  <si>
+    <t>Рёв скорости</t>
+  </si>
+  <si>
+    <t>Удар исподтишка</t>
+  </si>
+  <si>
+    <t>Дарованная смерть</t>
+  </si>
+  <si>
+    <t>Призрачная казнь</t>
+  </si>
+  <si>
+    <t>Разрыв пустоты</t>
+  </si>
+  <si>
+    <t>Кровавый укус</t>
+  </si>
+  <si>
+    <t>Тугой арбалет</t>
+  </si>
+  <si>
+    <t>Орлиное заклятье</t>
+  </si>
+  <si>
+    <t>Быстрый выпад</t>
+  </si>
+  <si>
+    <t>Атака перьями</t>
+  </si>
+  <si>
+    <t>Штурм</t>
+  </si>
+  <si>
+    <t>Казнь перьями</t>
+  </si>
+  <si>
+    <t>Резкий удар</t>
+  </si>
+  <si>
+    <t>Званная смерть</t>
+  </si>
+  <si>
+    <t>Запуск</t>
+  </si>
+  <si>
+    <t>Молниеносный укус</t>
+  </si>
+  <si>
+    <t>Загнанный зверь</t>
+  </si>
+  <si>
+    <t>Перьевой щит</t>
+  </si>
+  <si>
+    <t>Сломанная жизнь</t>
+  </si>
+  <si>
+    <t>Дух перьев</t>
+  </si>
+  <si>
+    <t>Божественный выстрел</t>
+  </si>
+  <si>
+    <t>Ледяной клинок</t>
+  </si>
+  <si>
+    <t>Огненный взрыв</t>
+  </si>
+  <si>
+    <t>Удар крылом</t>
+  </si>
+  <si>
+    <t>Одухотворение</t>
+  </si>
+  <si>
+    <t>Сосредоточенная сила</t>
+  </si>
+  <si>
+    <t>Предсказанная смерть</t>
+  </si>
+  <si>
+    <t>Морозные доспехи</t>
+  </si>
+  <si>
+    <t>Сосредоточенный дух</t>
+  </si>
+  <si>
+    <t>Обжиг</t>
+  </si>
+  <si>
+    <t>Песнопение</t>
+  </si>
+  <si>
+    <t>Ледяной укус</t>
+  </si>
+  <si>
+    <t>Быстрая смерть</t>
+  </si>
+  <si>
+    <t>Ледниковая эрозия</t>
+  </si>
+  <si>
+    <t>Рубежная оборона</t>
+  </si>
+  <si>
+    <t>Ветряный дефект</t>
+  </si>
+  <si>
+    <t>Подозрение</t>
+  </si>
+  <si>
+    <t>Зачарованный ряд</t>
+  </si>
+  <si>
+    <t>Безудержные чары</t>
+  </si>
+  <si>
+    <t>Чёрная магия</t>
+  </si>
+  <si>
+    <t>Обузданные чары</t>
+  </si>
+  <si>
+    <t>Злая душа</t>
+  </si>
+  <si>
+    <t>Порченный дух</t>
+  </si>
+  <si>
+    <t>Зачарованная речь</t>
+  </si>
+  <si>
+    <t>Прорыв рядов</t>
+  </si>
+  <si>
+    <t>Порождение</t>
+  </si>
+  <si>
+    <t>Возбуждённый дух</t>
+  </si>
+  <si>
+    <t>Своевольный удар</t>
+  </si>
+  <si>
+    <t>Порочная казнь</t>
+  </si>
+  <si>
+    <t>Жертвенная нечисть</t>
+  </si>
+  <si>
+    <t>Обвивающий дракон</t>
+  </si>
+  <si>
+    <t>Теневой щит</t>
+  </si>
+  <si>
+    <t>Поглощение духа</t>
+  </si>
+  <si>
+    <t>Скитания</t>
+  </si>
+  <si>
+    <t>Подавленное начало</t>
+  </si>
+  <si>
+    <t>Вынужденность</t>
+  </si>
+  <si>
+    <t>Сломленный дух</t>
+  </si>
+  <si>
+    <t>Забытая душа</t>
+  </si>
+  <si>
+    <t>Скованная тень</t>
+  </si>
+  <si>
+    <t>Поражённый дух</t>
+  </si>
+  <si>
+    <t>Шальная стрела</t>
+  </si>
+  <si>
+    <t>Бездумье</t>
+  </si>
+  <si>
+    <t>Оплаканная смерть</t>
+  </si>
+  <si>
+    <t>Обвивающая душа</t>
+  </si>
+  <si>
+    <t>Речь душ</t>
+  </si>
+  <si>
+    <t>Подавленная душа</t>
+  </si>
+  <si>
+    <t>Укус души</t>
+  </si>
+  <si>
+    <t>Ярость душ</t>
+  </si>
+  <si>
+    <t>Обескураживание</t>
+  </si>
+  <si>
+    <t>Тёплый ветер</t>
+  </si>
+  <si>
+    <t>Сердечный укус</t>
+  </si>
+  <si>
+    <t>Покровительство</t>
+  </si>
+  <si>
+    <t>Призыв грома</t>
+  </si>
+  <si>
+    <t>Убеждённая душа</t>
+  </si>
+  <si>
+    <t>Прикрывающие перья</t>
+  </si>
+  <si>
+    <t>Сосредоточенное начало</t>
+  </si>
+  <si>
+    <t>Перемещение</t>
+  </si>
+  <si>
+    <t>Ветряный укус</t>
+  </si>
+  <si>
+    <t>Сгнившие кости</t>
+  </si>
+  <si>
+    <t>Остаток жизни</t>
+  </si>
+  <si>
+    <t>Громовая мощь</t>
+  </si>
+  <si>
+    <t>Обвивающий аромат</t>
+  </si>
+  <si>
+    <t>Цепное убийство</t>
+  </si>
+  <si>
+    <t>Исходное заклятье</t>
+  </si>
+  <si>
+    <t>Крах</t>
+  </si>
+  <si>
+    <t>Мощный рык</t>
+  </si>
+  <si>
+    <t>Уверенная мощь</t>
+  </si>
+  <si>
+    <t>Защита щитом</t>
+  </si>
+  <si>
+    <t>Звериный дух</t>
+  </si>
+  <si>
+    <t>Подчинение души</t>
+  </si>
+  <si>
+    <t>Раскол брони</t>
+  </si>
+  <si>
+    <t>Возврат духа</t>
+  </si>
+  <si>
+    <t>Застойная перемена</t>
+  </si>
+  <si>
+    <t>Укус демона</t>
+  </si>
+  <si>
+    <t>Натиск</t>
+  </si>
+  <si>
+    <t>Зверский прилив</t>
+  </si>
+  <si>
+    <t>Болезненное зверство</t>
+  </si>
+  <si>
+    <t>Преследование</t>
+  </si>
+  <si>
+    <t>Вопль</t>
+  </si>
+  <si>
+    <t>Вожделенный дух</t>
+  </si>
+  <si>
+    <t>Укус пустоты</t>
+  </si>
+  <si>
+    <t>Шрамы от укусов</t>
+  </si>
+  <si>
+    <t>Размытие</t>
+  </si>
+  <si>
+    <t>Обвал</t>
+  </si>
+  <si>
+    <t>Иллюзорный танец</t>
+  </si>
+  <si>
+    <t>Встречный поток</t>
+  </si>
+  <si>
+    <t>Челночное снование</t>
+  </si>
+  <si>
+    <t>Деформация</t>
+  </si>
+  <si>
+    <t>Оковы</t>
+  </si>
+  <si>
+    <t>Забытье</t>
+  </si>
+  <si>
+    <t>Отстранение</t>
+  </si>
+  <si>
+    <t>Воспоминание душ</t>
+  </si>
+  <si>
+    <t>Свёртывание</t>
+  </si>
+  <si>
+    <t>Гнёт</t>
+  </si>
+  <si>
+    <t>Острие пустоты</t>
+  </si>
+  <si>
+    <t>Мгновенная вспышка</t>
+  </si>
+  <si>
+    <t>Сосредоточенность</t>
+  </si>
+  <si>
+    <t>Тирания</t>
+  </si>
+  <si>
+    <t>Пляска</t>
+  </si>
+  <si>
+    <t>Напряжение сил</t>
+  </si>
+  <si>
+    <t>Гнев дракона</t>
+  </si>
+  <si>
+    <t>Защитная форма</t>
+  </si>
+  <si>
+    <t>Атака из засады</t>
+  </si>
+  <si>
+    <t>Озарение</t>
+  </si>
+  <si>
+    <t>Могучий дракон</t>
+  </si>
+  <si>
+    <t>Лунный укус</t>
+  </si>
+  <si>
+    <t>Санкция</t>
+  </si>
+  <si>
+    <t>Смерть на щите</t>
+  </si>
+  <si>
+    <t>Несчастная смута</t>
+  </si>
+  <si>
+    <t>Волна холода</t>
+  </si>
+  <si>
+    <t>Болезненный удар</t>
+  </si>
+  <si>
+    <t>Пронзающий хук</t>
+  </si>
+  <si>
+    <t>Противник богов</t>
+  </si>
+  <si>
+    <t>Очарование</t>
+  </si>
+  <si>
+    <t>Судьба</t>
+  </si>
+  <si>
+    <t>Ледяное сердце</t>
+  </si>
+  <si>
+    <t>Цанфэн</t>
+  </si>
+  <si>
+    <t>Небокрушитель</t>
+  </si>
+  <si>
+    <t>Мудрый отшельник</t>
+  </si>
+  <si>
+    <t>Расколотая гора</t>
+  </si>
+  <si>
+    <t>Жнец душ</t>
+  </si>
+  <si>
+    <t>Меч затмения</t>
+  </si>
+  <si>
+    <t>Витать в небесах</t>
+  </si>
+  <si>
+    <t>Видение Бога</t>
+  </si>
+  <si>
+    <t>Порыв ветра</t>
+  </si>
+  <si>
+    <t>Блеск</t>
+  </si>
+  <si>
+    <t>Вой дракона</t>
+  </si>
+  <si>
+    <t>Беспорочный</t>
+  </si>
+  <si>
+    <t>Сломанный</t>
+  </si>
+  <si>
+    <t>Наказать зло</t>
+  </si>
+  <si>
+    <t>Королевский дракон</t>
+  </si>
+  <si>
+    <t>Кованое сердце</t>
+  </si>
+  <si>
+    <t>Просветление</t>
+  </si>
+  <si>
+    <t>Нет луча</t>
+  </si>
+  <si>
+    <t>Волшебный Меч</t>
+  </si>
+  <si>
+    <t>Конформный</t>
+  </si>
+  <si>
+    <t>Густота</t>
+  </si>
+  <si>
+    <t>Движение тени</t>
+  </si>
+  <si>
+    <t>Музыка грома</t>
+  </si>
+  <si>
+    <t>Новолуние</t>
+  </si>
+  <si>
+    <t>Ясная тень</t>
+  </si>
+  <si>
+    <t>Сияние светил</t>
+  </si>
+  <si>
+    <t>Громовой удар</t>
+  </si>
+  <si>
+    <t>Затмение</t>
+  </si>
+  <si>
+    <t>Тяжесть нефрита</t>
+  </si>
+  <si>
+    <t>Свет добродетели</t>
+  </si>
+  <si>
+    <t>Море приливов</t>
+  </si>
+  <si>
+    <t>Мрак</t>
+  </si>
+  <si>
+    <t>Морозная месть</t>
+  </si>
+  <si>
+    <t>Туманная луна</t>
+  </si>
+  <si>
+    <t>Скромность</t>
+  </si>
+  <si>
+    <t>Одинокий свет</t>
+  </si>
+  <si>
+    <t>Ход судьбы</t>
+  </si>
+  <si>
+    <t>Прелесть луны</t>
+  </si>
+  <si>
+    <t>Заходящая луна</t>
+  </si>
+  <si>
+    <t>Возгорание</t>
+  </si>
+  <si>
+    <t>Погибель драконов</t>
+  </si>
+  <si>
+    <t>Поток лавы</t>
+  </si>
+  <si>
+    <t>Непрерывная атака</t>
+  </si>
+  <si>
+    <t>Тление</t>
+  </si>
+  <si>
+    <t>Мощь бога</t>
+  </si>
+  <si>
+    <t>Триумф</t>
+  </si>
+  <si>
+    <t>Удар бури</t>
+  </si>
+  <si>
+    <t>Страж духов</t>
+  </si>
+  <si>
+    <t>Божественный щит</t>
+  </si>
+  <si>
+    <t>Контроль демона</t>
+  </si>
+  <si>
+    <t>Крушитель</t>
+  </si>
+  <si>
+    <t>Магический контроль</t>
+  </si>
+  <si>
+    <t>Рассечение неба</t>
+  </si>
+  <si>
+    <t>Владыка</t>
+  </si>
+  <si>
+    <t>Пламя</t>
+  </si>
+  <si>
+    <t>Лунная вуаль</t>
+  </si>
+  <si>
+    <t>Словно ветер</t>
+  </si>
+  <si>
+    <t>Звездный удар</t>
+  </si>
+  <si>
+    <t>Раскол хаоса</t>
+  </si>
+  <si>
+    <t>Бесформенная тень</t>
+  </si>
+  <si>
+    <t>Пылающий авангард</t>
+  </si>
+  <si>
+    <t>Крах империи</t>
+  </si>
+  <si>
+    <t>Бурный порыв</t>
+  </si>
+  <si>
+    <t>Бог севера</t>
+  </si>
+  <si>
+    <t>Буревестник</t>
+  </si>
+  <si>
+    <t>Полет радуги</t>
+  </si>
+  <si>
+    <t>Боевая эгида</t>
+  </si>
+  <si>
+    <t>Ярость бездны</t>
+  </si>
+  <si>
+    <t>Конец пути</t>
+  </si>
+  <si>
+    <t>Землетрясение</t>
+  </si>
+  <si>
+    <t>Рев дракона</t>
   </si>
 </sst>
 </file>
@@ -2482,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="G212" sqref="G212"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>492</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -2534,7 +2534,7 @@
         <v>226</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>489</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>493</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>232</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>490</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>494</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>228</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>491</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>495</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2603,7 +2603,7 @@
         <v>229</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>492</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>275</v>
+        <v>496</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -2626,7 +2626,7 @@
         <v>230</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>493</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>276</v>
+        <v>497</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
@@ -2649,7 +2649,7 @@
         <v>231</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>494</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>498</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
@@ -2672,7 +2672,7 @@
         <v>227</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>495</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2683,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>278</v>
+        <v>499</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>233</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>496</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>279</v>
+        <v>500</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -2718,7 +2718,7 @@
         <v>236</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>497</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>280</v>
+        <v>501</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -2741,7 +2741,7 @@
         <v>238</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>498</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>281</v>
+        <v>502</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>234</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>499</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>282</v>
+        <v>503</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -2787,7 +2787,7 @@
         <v>237</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>500</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>283</v>
+        <v>504</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>235</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>501</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>284</v>
+        <v>505</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -2833,7 +2833,7 @@
         <v>239</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>502</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>285</v>
+        <v>506</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>240</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>503</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,7 +2867,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>507</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>504</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>287</v>
+        <v>508</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>229</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>505</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         <v>227</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>506</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>510</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>228</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>507</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>290</v>
+        <v>511</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
@@ -2971,7 +2971,7 @@
         <v>226</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>508</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>291</v>
+        <v>512</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>230</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>509</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,7 +3005,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>292</v>
+        <v>513</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>231</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>510</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>293</v>
+        <v>514</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>232</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>511</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3051,7 +3051,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>294</v>
+        <v>515</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -3063,7 +3063,7 @@
         <v>233</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>512</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>295</v>
+        <v>516</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -3086,7 +3086,7 @@
         <v>238</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>513</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3097,7 +3097,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>296</v>
+        <v>517</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>235</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>514</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>297</v>
+        <v>518</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>236</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>515</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>298</v>
+        <v>519</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -3155,7 +3155,7 @@
         <v>237</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>516</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>299</v>
+        <v>520</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -3178,7 +3178,7 @@
         <v>234</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>517</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>300</v>
+        <v>521</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>239</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>518</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>301</v>
+        <v>522</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>240</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>519</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3235,7 +3235,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>302</v>
+        <v>523</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -3247,7 +3247,7 @@
         <v>241</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>520</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>303</v>
+        <v>524</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -3270,7 +3270,7 @@
         <v>229</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>521</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>304</v>
+        <v>525</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -3293,7 +3293,7 @@
         <v>231</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>522</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3304,7 +3304,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>305</v>
+        <v>526</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>228</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>523</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>306</v>
+        <v>527</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>226</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>524</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>307</v>
+        <v>528</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
@@ -3362,7 +3362,7 @@
         <v>230</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>525</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3373,7 +3373,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>308</v>
+        <v>529</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
@@ -3385,7 +3385,7 @@
         <v>227</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>526</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>309</v>
+        <v>530</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>232</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>527</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>310</v>
+        <v>531</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -3431,7 +3431,7 @@
         <v>233</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>528</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>311</v>
+        <v>532</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         <v>239</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>529</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,7 +3465,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>312</v>
+        <v>533</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1</v>
@@ -3477,7 +3477,7 @@
         <v>241</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>530</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3488,7 +3488,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>313</v>
+        <v>534</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         <v>236</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>531</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>314</v>
+        <v>535</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
@@ -3523,7 +3523,7 @@
         <v>237</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>532</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3534,7 +3534,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>315</v>
+        <v>536</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
@@ -3546,7 +3546,7 @@
         <v>238</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>533</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>316</v>
+        <v>537</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1</v>
@@ -3569,7 +3569,7 @@
         <v>234</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>534</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
@@ -3592,7 +3592,7 @@
         <v>240</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>535</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>318</v>
+        <v>539</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1</v>
@@ -3615,7 +3615,7 @@
         <v>235</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>536</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3626,7 +3626,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>319</v>
+        <v>540</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1</v>
@@ -3638,7 +3638,7 @@
         <v>230</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>537</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3649,7 +3649,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>320</v>
+        <v>541</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1</v>
@@ -3661,7 +3661,7 @@
         <v>227</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>538</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3672,7 +3672,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>321</v>
+        <v>542</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>228</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>539</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>322</v>
+        <v>543</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>229</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>540</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3718,7 +3718,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>323</v>
+        <v>544</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>1</v>
@@ -3730,7 +3730,7 @@
         <v>226</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>541</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,7 +3741,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>324</v>
+        <v>545</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>231</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>542</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>325</v>
+        <v>546</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>1</v>
@@ -3776,7 +3776,7 @@
         <v>232</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>543</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3787,7 +3787,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>326</v>
+        <v>547</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1</v>
@@ -3799,7 +3799,7 @@
         <v>233</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>544</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>327</v>
+        <v>548</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1</v>
@@ -3822,7 +3822,7 @@
         <v>236</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>545</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>328</v>
+        <v>549</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>235</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>546</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>329</v>
+        <v>550</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
@@ -3868,7 +3868,7 @@
         <v>234</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>547</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>330</v>
+        <v>551</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>237</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>548</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3902,7 +3902,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>331</v>
+        <v>552</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>238</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>549</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3925,7 +3925,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>332</v>
+        <v>553</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>239</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>550</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>333</v>
+        <v>554</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>240</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>551</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3971,7 +3971,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>334</v>
+        <v>555</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1</v>
@@ -3983,7 +3983,7 @@
         <v>241</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>552</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>335</v>
+        <v>556</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1</v>
@@ -4006,7 +4006,7 @@
         <v>233</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>553</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>336</v>
+        <v>557</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         <v>227</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>554</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>337</v>
+        <v>558</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>228</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>555</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>338</v>
+        <v>559</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <v>229</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>556</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4086,7 +4086,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>339</v>
+        <v>560</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1</v>
@@ -4098,7 +4098,7 @@
         <v>230</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>557</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4109,7 +4109,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>231</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>558</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>341</v>
+        <v>562</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>232</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>559</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>342</v>
+        <v>563</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1</v>
@@ -4167,7 +4167,7 @@
         <v>226</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>560</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4178,7 +4178,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>343</v>
+        <v>564</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
@@ -4190,7 +4190,7 @@
         <v>236</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>561</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4202,7 +4202,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>344</v>
+        <v>565</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -4214,7 +4214,7 @@
         <v>240</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>562</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4225,7 +4225,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>345</v>
+        <v>566</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>241</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>563</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>346</v>
+        <v>567</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -4260,7 +4260,7 @@
         <v>234</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>564</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>347</v>
+        <v>568</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>237</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>565</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>348</v>
+        <v>569</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>238</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>566</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>349</v>
+        <v>570</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>1</v>
@@ -4329,7 +4329,7 @@
         <v>239</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>567</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>350</v>
+        <v>571</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>235</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>568</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>351</v>
+        <v>572</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>226</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>569</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4386,7 +4386,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>352</v>
+        <v>573</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>230</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>570</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>353</v>
+        <v>574</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>1</v>
@@ -4421,7 +4421,7 @@
         <v>228</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>571</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>354</v>
+        <v>575</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
@@ -4444,7 +4444,7 @@
         <v>229</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>572</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>355</v>
+        <v>576</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>227</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>573</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4478,7 +4478,7 @@
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>356</v>
+        <v>577</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
@@ -4490,7 +4490,7 @@
         <v>231</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>574</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4501,7 +4501,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>357</v>
+        <v>578</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>232</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>575</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>358</v>
+        <v>579</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>233</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>576</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4547,7 +4547,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>359</v>
+        <v>580</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -4559,7 +4559,7 @@
         <v>241</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>577</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4570,7 +4570,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>360</v>
+        <v>581</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1</v>
@@ -4582,7 +4582,7 @@
         <v>235</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>578</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4593,7 +4593,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>361</v>
+        <v>582</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
@@ -4605,7 +4605,7 @@
         <v>236</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>579</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4616,7 +4616,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>362</v>
+        <v>583</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>237</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>580</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4639,7 +4639,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>363</v>
+        <v>584</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>238</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>581</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4662,7 +4662,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>364</v>
+        <v>585</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>239</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>582</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4685,7 +4685,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>365</v>
+        <v>586</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         <v>240</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>583</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4708,7 +4708,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>366</v>
+        <v>587</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>234</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>584</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>367</v>
+        <v>588</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>1</v>
@@ -4743,7 +4743,7 @@
         <v>233</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>585</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4754,7 +4754,7 @@
         <v>97</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>368</v>
+        <v>589</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1</v>
@@ -4766,7 +4766,7 @@
         <v>227</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>586</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4777,7 +4777,7 @@
         <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>369</v>
+        <v>590</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>1</v>
@@ -4789,7 +4789,7 @@
         <v>228</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>587</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4800,7 +4800,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -4812,7 +4812,7 @@
         <v>229</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>588</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4823,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>371</v>
+        <v>592</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
@@ -4835,7 +4835,7 @@
         <v>230</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>589</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>372</v>
+        <v>593</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>1</v>
@@ -4858,7 +4858,7 @@
         <v>231</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>590</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4869,7 +4869,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>373</v>
+        <v>594</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>232</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>591</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>344</v>
+        <v>565</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>1</v>
@@ -4904,7 +4904,7 @@
         <v>226</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>592</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4915,7 +4915,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>374</v>
+        <v>595</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>237</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>593</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4938,7 +4938,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>375</v>
+        <v>596</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>1</v>
@@ -4950,7 +4950,7 @@
         <v>238</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>594</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4961,7 +4961,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>376</v>
+        <v>597</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>236</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>595</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4984,7 +4984,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>377</v>
+        <v>598</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
@@ -4996,7 +4996,7 @@
         <v>234</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>596</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5007,7 +5007,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>378</v>
+        <v>599</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>1</v>
@@ -5019,7 +5019,7 @@
         <v>235</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>597</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5030,7 +5030,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>379</v>
+        <v>600</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>1</v>
@@ -5042,7 +5042,7 @@
         <v>239</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>598</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5053,7 +5053,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>380</v>
+        <v>601</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>1</v>
@@ -5065,7 +5065,7 @@
         <v>240</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>599</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5076,7 +5076,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>381</v>
+        <v>602</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>1</v>
@@ -5088,7 +5088,7 @@
         <v>241</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>600</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5099,7 +5099,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>382</v>
+        <v>603</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>1</v>
@@ -5111,7 +5111,7 @@
         <v>230</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>601</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5122,7 +5122,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>383</v>
+        <v>604</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>1</v>
@@ -5134,7 +5134,7 @@
         <v>231</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>602</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5145,7 +5145,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>384</v>
+        <v>605</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         <v>228</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>603</v>
+        <v>385</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>385</v>
+        <v>606</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>1</v>
@@ -5180,7 +5180,7 @@
         <v>229</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>604</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5191,7 +5191,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>386</v>
+        <v>607</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -5203,7 +5203,7 @@
         <v>226</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>605</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5214,7 +5214,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>387</v>
+        <v>608</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>1</v>
@@ -5226,7 +5226,7 @@
         <v>227</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>606</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5237,7 +5237,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>388</v>
+        <v>609</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1</v>
@@ -5249,7 +5249,7 @@
         <v>232</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>607</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5260,7 +5260,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>389</v>
+        <v>610</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         <v>233</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>608</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5283,7 +5283,7 @@
         <v>118</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>390</v>
+        <v>611</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1</v>
@@ -5295,7 +5295,7 @@
         <v>237</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>609</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5306,7 +5306,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>391</v>
+        <v>612</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
@@ -5318,7 +5318,7 @@
         <v>239</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>610</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5329,7 +5329,7 @@
         <v>121</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>392</v>
+        <v>613</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>1</v>
@@ -5341,7 +5341,7 @@
         <v>236</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>611</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -5352,7 +5352,7 @@
         <v>122</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>393</v>
+        <v>614</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>1</v>
@@ -5364,7 +5364,7 @@
         <v>234</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>612</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5375,7 +5375,7 @@
         <v>116</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>394</v>
+        <v>615</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>1</v>
@@ -5387,7 +5387,7 @@
         <v>235</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>613</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5398,7 +5398,7 @@
         <v>123</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>395</v>
+        <v>616</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>1</v>
@@ -5410,7 +5410,7 @@
         <v>238</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>614</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5421,7 +5421,7 @@
         <v>124</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>396</v>
+        <v>617</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>1</v>
@@ -5433,7 +5433,7 @@
         <v>240</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>615</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
         <v>125</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>397</v>
+        <v>618</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>1</v>
@@ -5456,7 +5456,7 @@
         <v>241</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>616</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5467,7 +5467,7 @@
         <v>126</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>398</v>
+        <v>619</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>1</v>
@@ -5479,7 +5479,7 @@
         <v>226</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>617</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5490,7 +5490,7 @@
         <v>127</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>399</v>
+        <v>620</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>1</v>
@@ -5502,7 +5502,7 @@
         <v>232</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>618</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5513,7 +5513,7 @@
         <v>128</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>400</v>
+        <v>621</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>1</v>
@@ -5525,7 +5525,7 @@
         <v>228</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>619</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5536,7 +5536,7 @@
         <v>129</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>401</v>
+        <v>622</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>1</v>
@@ -5548,7 +5548,7 @@
         <v>229</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>620</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5559,7 +5559,7 @@
         <v>130</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>402</v>
+        <v>623</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>1</v>
@@ -5571,7 +5571,7 @@
         <v>230</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>621</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5582,7 +5582,7 @@
         <v>131</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>403</v>
+        <v>624</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>231</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>622</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5605,7 +5605,7 @@
         <v>132</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>404</v>
+        <v>625</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>227</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>623</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5628,7 +5628,7 @@
         <v>133</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>405</v>
+        <v>626</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>1</v>
@@ -5640,7 +5640,7 @@
         <v>233</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>624</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
         <v>134</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>406</v>
+        <v>627</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1</v>
@@ -5663,7 +5663,7 @@
         <v>234</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>625</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5674,7 +5674,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>407</v>
+        <v>628</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>1</v>
@@ -5686,7 +5686,7 @@
         <v>239</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>626</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5697,7 +5697,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>408</v>
+        <v>629</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>1</v>
@@ -5709,7 +5709,7 @@
         <v>236</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>627</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5720,7 +5720,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>409</v>
+        <v>630</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>237</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>628</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5743,7 +5743,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>410</v>
+        <v>631</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>1</v>
@@ -5755,7 +5755,7 @@
         <v>238</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>629</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5766,7 +5766,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>411</v>
+        <v>632</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>235</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>630</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5789,7 +5789,7 @@
         <v>140</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>412</v>
+        <v>633</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>1</v>
@@ -5801,7 +5801,7 @@
         <v>240</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>631</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>413</v>
+        <v>634</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>1</v>
@@ -5824,7 +5824,7 @@
         <v>241</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>632</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5835,7 +5835,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>414</v>
+        <v>635</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>143</v>
@@ -5847,7 +5847,7 @@
         <v>257</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>633</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5858,7 +5858,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>415</v>
+        <v>636</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>143</v>
@@ -5870,7 +5870,7 @@
         <v>258</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>634</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>416</v>
+        <v>637</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>143</v>
@@ -5893,7 +5893,7 @@
         <v>263</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>635</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5904,7 +5904,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>417</v>
+        <v>638</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>143</v>
@@ -5916,7 +5916,7 @@
         <v>260</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>636</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5927,7 +5927,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>418</v>
+        <v>639</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>143</v>
@@ -5939,7 +5939,7 @@
         <v>259</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>637</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5950,7 +5950,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>419</v>
+        <v>640</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>143</v>
@@ -5962,7 +5962,7 @@
         <v>265</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>638</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5973,7 +5973,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>420</v>
+        <v>641</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>143</v>
@@ -5985,7 +5985,7 @@
         <v>261</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>639</v>
+        <v>421</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>421</v>
+        <v>642</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>143</v>
@@ -6008,7 +6008,7 @@
         <v>262</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>640</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6019,7 +6019,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>422</v>
+        <v>643</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>143</v>
@@ -6031,7 +6031,7 @@
         <v>264</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>641</v>
+        <v>423</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6042,7 +6042,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>423</v>
+        <v>644</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>143</v>
@@ -6054,7 +6054,7 @@
         <v>266</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>642</v>
+        <v>424</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6065,7 +6065,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>143</v>
@@ -6077,7 +6077,7 @@
         <v>228</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>643</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6088,7 +6088,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>143</v>
@@ -6100,7 +6100,7 @@
         <v>229</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>644</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6111,7 +6111,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>426</v>
+        <v>647</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>143</v>
@@ -6123,7 +6123,7 @@
         <v>230</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>645</v>
+        <v>427</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6134,7 +6134,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>427</v>
+        <v>648</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>143</v>
@@ -6146,7 +6146,7 @@
         <v>226</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>646</v>
+        <v>428</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6157,7 +6157,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>428</v>
+        <v>649</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>143</v>
@@ -6169,7 +6169,7 @@
         <v>231</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>647</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>429</v>
+        <v>650</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>143</v>
@@ -6192,7 +6192,7 @@
         <v>227</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>648</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,7 +6203,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>430</v>
+        <v>651</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>143</v>
@@ -6215,7 +6215,7 @@
         <v>232</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>649</v>
+        <v>431</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6226,7 +6226,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>431</v>
+        <v>652</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>143</v>
@@ -6238,7 +6238,7 @@
         <v>233</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>650</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6249,7 +6249,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>432</v>
+        <v>653</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>143</v>
@@ -6261,7 +6261,7 @@
         <v>236</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>651</v>
+        <v>433</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>433</v>
+        <v>654</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>143</v>
@@ -6284,7 +6284,7 @@
         <v>237</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>652</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6295,7 +6295,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>434</v>
+        <v>655</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>143</v>
@@ -6307,7 +6307,7 @@
         <v>238</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>653</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6318,7 +6318,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>435</v>
+        <v>656</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>143</v>
@@ -6330,7 +6330,7 @@
         <v>239</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>654</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6341,7 +6341,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>436</v>
+        <v>657</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>143</v>
@@ -6353,7 +6353,7 @@
         <v>234</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>655</v>
+        <v>437</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>437</v>
+        <v>658</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>143</v>
@@ -6376,7 +6376,7 @@
         <v>235</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>656</v>
+        <v>438</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6387,7 +6387,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>438</v>
+        <v>659</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>143</v>
@@ -6399,7 +6399,7 @@
         <v>240</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>657</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6410,7 +6410,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>439</v>
+        <v>660</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>143</v>
@@ -6422,7 +6422,7 @@
         <v>241</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>658</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6433,7 +6433,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>440</v>
+        <v>661</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>143</v>
@@ -6445,7 +6445,7 @@
         <v>228</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>659</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>441</v>
+        <v>662</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>143</v>
@@ -6468,7 +6468,7 @@
         <v>227</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>660</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6479,7 +6479,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>442</v>
+        <v>663</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>143</v>
@@ -6491,7 +6491,7 @@
         <v>229</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>661</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6502,7 +6502,7 @@
         <v>172</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>443</v>
+        <v>664</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>143</v>
@@ -6514,7 +6514,7 @@
         <v>230</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>662</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6525,7 +6525,7 @@
         <v>173</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>444</v>
+        <v>665</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>143</v>
@@ -6537,7 +6537,7 @@
         <v>226</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>663</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6548,7 +6548,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>445</v>
+        <v>666</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>143</v>
@@ -6560,7 +6560,7 @@
         <v>231</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>664</v>
+        <v>446</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6571,7 +6571,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>446</v>
+        <v>667</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>143</v>
@@ -6583,7 +6583,7 @@
         <v>232</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>665</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6594,7 +6594,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>447</v>
+        <v>668</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>143</v>
@@ -6606,7 +6606,7 @@
         <v>233</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>666</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6617,7 +6617,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>448</v>
+        <v>669</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>143</v>
@@ -6629,7 +6629,7 @@
         <v>236</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>667</v>
+        <v>449</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6640,7 +6640,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>449</v>
+        <v>670</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>143</v>
@@ -6652,7 +6652,7 @@
         <v>237</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>668</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6663,7 +6663,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>450</v>
+        <v>671</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>143</v>
@@ -6675,7 +6675,7 @@
         <v>238</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>669</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6686,7 +6686,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>451</v>
+        <v>672</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>143</v>
@@ -6698,7 +6698,7 @@
         <v>239</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>670</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6709,7 +6709,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>452</v>
+        <v>673</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>143</v>
@@ -6721,7 +6721,7 @@
         <v>234</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>671</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6732,7 +6732,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>453</v>
+        <v>674</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>143</v>
@@ -6744,7 +6744,7 @@
         <v>240</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>672</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -6755,7 +6755,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>454</v>
+        <v>675</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>143</v>
@@ -6767,7 +6767,7 @@
         <v>241</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>673</v>
+        <v>455</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6778,7 +6778,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>455</v>
+        <v>676</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>143</v>
@@ -6790,7 +6790,7 @@
         <v>235</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>674</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6801,7 +6801,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>456</v>
+        <v>677</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>143</v>
@@ -6813,7 +6813,7 @@
         <v>267</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>675</v>
+        <v>457</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6824,7 +6824,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>457</v>
+        <v>678</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>143</v>
@@ -6836,7 +6836,7 @@
         <v>268</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>676</v>
+        <v>458</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6847,7 +6847,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>458</v>
+        <v>679</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>143</v>
@@ -6859,7 +6859,7 @@
         <v>269</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>677</v>
+        <v>459</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6870,7 +6870,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>459</v>
+        <v>680</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>143</v>
@@ -6882,7 +6882,7 @@
         <v>228</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>678</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6893,7 +6893,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>460</v>
+        <v>681</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>143</v>
@@ -6905,7 +6905,7 @@
         <v>229</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>679</v>
+        <v>461</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6916,7 +6916,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>461</v>
+        <v>682</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>143</v>
@@ -6928,7 +6928,7 @@
         <v>230</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>680</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6939,7 +6939,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>462</v>
+        <v>683</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>143</v>
@@ -6951,7 +6951,7 @@
         <v>231</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>681</v>
+        <v>463</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6962,7 +6962,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>463</v>
+        <v>684</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>143</v>
@@ -6974,7 +6974,7 @@
         <v>232</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>682</v>
+        <v>464</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6985,7 +6985,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>464</v>
+        <v>685</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>143</v>
@@ -6997,7 +6997,7 @@
         <v>233</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>683</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>465</v>
+        <v>686</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>143</v>
@@ -7020,7 +7020,7 @@
         <v>226</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>684</v>
+        <v>466</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -7031,7 +7031,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>466</v>
+        <v>687</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>143</v>
@@ -7043,7 +7043,7 @@
         <v>227</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>685</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -7054,7 +7054,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>467</v>
+        <v>688</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>143</v>
@@ -7066,7 +7066,7 @@
         <v>234</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>686</v>
+        <v>468</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -7077,7 +7077,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>468</v>
+        <v>689</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>143</v>
@@ -7089,7 +7089,7 @@
         <v>236</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>687</v>
+        <v>469</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -7100,7 +7100,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>469</v>
+        <v>690</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>143</v>
@@ -7112,7 +7112,7 @@
         <v>237</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>688</v>
+        <v>470</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -7123,7 +7123,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>470</v>
+        <v>691</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>143</v>
@@ -7135,7 +7135,7 @@
         <v>238</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>689</v>
+        <v>471</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -7146,7 +7146,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>471</v>
+        <v>692</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>143</v>
@@ -7158,7 +7158,7 @@
         <v>235</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>690</v>
+        <v>472</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -7169,7 +7169,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>376</v>
+        <v>597</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>143</v>
@@ -7181,7 +7181,7 @@
         <v>239</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>691</v>
+        <v>473</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>472</v>
+        <v>693</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>143</v>
@@ -7204,7 +7204,7 @@
         <v>240</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>692</v>
+        <v>474</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -7215,7 +7215,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>275</v>
+        <v>496</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>143</v>
@@ -7227,7 +7227,7 @@
         <v>241</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>693</v>
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -7238,7 +7238,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>473</v>
+        <v>694</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>143</v>
@@ -7250,7 +7250,7 @@
         <v>226</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>694</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -7261,7 +7261,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>474</v>
+        <v>695</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>206</v>
@@ -7273,7 +7273,7 @@
         <v>227</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>695</v>
+        <v>477</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>207</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>475</v>
+        <v>696</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>206</v>
@@ -7296,7 +7296,7 @@
         <v>228</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>696</v>
+        <v>478</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -7307,7 +7307,7 @@
         <v>208</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>476</v>
+        <v>697</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>206</v>
@@ -7319,7 +7319,7 @@
         <v>229</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>697</v>
+        <v>479</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -7330,7 +7330,7 @@
         <v>209</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>477</v>
+        <v>698</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>206</v>
@@ -7342,7 +7342,7 @@
         <v>230</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>698</v>
+        <v>480</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -7353,7 +7353,7 @@
         <v>210</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>478</v>
+        <v>699</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>206</v>
@@ -7365,7 +7365,7 @@
         <v>231</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>699</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
         <v>211</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>479</v>
+        <v>700</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>206</v>
@@ -7388,7 +7388,7 @@
         <v>232</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>700</v>
+        <v>482</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
         <v>212</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>480</v>
+        <v>701</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>206</v>
@@ -7411,7 +7411,7 @@
         <v>233</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>701</v>
+        <v>483</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7422,7 +7422,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>481</v>
+        <v>702</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>206</v>
@@ -7434,7 +7434,7 @@
         <v>234</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>702</v>
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -7445,7 +7445,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>482</v>
+        <v>703</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>206</v>
@@ -7457,7 +7457,7 @@
         <v>235</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>703</v>
+        <v>485</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7468,7 +7468,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>483</v>
+        <v>704</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>206</v>
@@ -7480,7 +7480,7 @@
         <v>236</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>704</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7491,7 +7491,7 @@
         <v>216</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>484</v>
+        <v>705</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>206</v>
@@ -7503,7 +7503,7 @@
         <v>237</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>705</v>
+        <v>487</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7514,7 +7514,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>485</v>
+        <v>706</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>206</v>
@@ -7526,7 +7526,7 @@
         <v>238</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>706</v>
+        <v>488</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7537,7 +7537,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>486</v>
+        <v>707</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>206</v>
@@ -7549,7 +7549,7 @@
         <v>239</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>707</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7560,7 +7560,7 @@
         <v>219</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>487</v>
+        <v>708</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>206</v>
@@ -7572,7 +7572,7 @@
         <v>240</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>708</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7583,7 +7583,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>488</v>
+        <v>709</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>206</v>
@@ -7595,7 +7595,7 @@
         <v>241</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>709</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
